--- a/docs/画面項目定義書/security_group/mo_security_group_create.xlsx
+++ b/docs/画面項目定義書/security_group/mo_security_group_create.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\security_group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667655E7-BFEA-4896-930F-B248FDA7BB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E74122-B719-4924-828B-8CA3E48E2793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>日本工学院</t>
   </si>
@@ -139,25 +139,6 @@
   </si>
   <si>
     <t>TCP</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>入力した情報を確定し、セキュリティグループが完成/セキュリティグループダッシュボードへ遷移</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクテイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>センイ</t>
-    </rPh>
     <phoneticPr fontId="8"/>
   </si>
   <si>
@@ -337,7 +318,30 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>セキュリティグループダッシュボードへ遷移</t>
+    <t>mo_security_group_create.html</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>入力した情報を確定し、セキュリティグループが完成/security_group_dashboardへ遷移</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>security_group_dashboardへ遷移</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -667,7 +671,7 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -760,31 +764,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1155,8 +1156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
@@ -1208,10 +1209,10 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="13">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
@@ -1221,11 +1222,13 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="13">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="11"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
       <c r="F6" s="12"/>
@@ -1296,7 +1299,7 @@
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="30" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="26">
@@ -1304,16 +1307,16 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="26">
@@ -1321,16 +1324,16 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="13">
@@ -1349,7 +1352,7 @@
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13">
@@ -1357,29 +1360,29 @@
         <v>6</v>
       </c>
       <c r="B14" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
     </row>
     <row r="15" spans="1:7" ht="13">
       <c r="A15" s="21">
         <v>7</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="30"/>
@@ -1389,14 +1392,14 @@
         <v>8</v>
       </c>
       <c r="B16" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>32</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>33</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" s="29"/>
     </row>
@@ -1405,60 +1408,60 @@
         <v>9</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="41"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="28"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-    </row>
-    <row r="18" spans="1:7" ht="24">
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+    </row>
+    <row r="18" spans="1:7" ht="13">
       <c r="A18" s="24">
         <v>10</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="41"/>
+        <v>32</v>
+      </c>
+      <c r="D18" s="39"/>
       <c r="E18" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
+        <v>25</v>
+      </c>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
     </row>
     <row r="19" spans="1:7" ht="24">
       <c r="A19" s="21">
         <v>11</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="41"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="28"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
     </row>
     <row r="20" spans="1:7" ht="13">
       <c r="A20" s="24">
         <v>12</v>
       </c>
       <c r="B20" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="32" t="s">
         <v>37</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="24">
@@ -1466,12 +1469,12 @@
         <v>13</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="42"/>
+      <c r="E21" s="40"/>
       <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:7" ht="24">
@@ -1479,12 +1482,12 @@
         <v>14</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="42"/>
+      <c r="E22" s="40"/>
       <c r="G22" s="30"/>
     </row>
     <row r="23" spans="1:7" ht="24">
@@ -1492,13 +1495,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="27"/>
-      <c r="E23" s="42" t="s">
+      <c r="E23" s="40" t="s">
         <v>23</v>
       </c>
       <c r="F23" s="29"/>
@@ -1509,13 +1512,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="27"/>
-      <c r="E24" s="42"/>
+      <c r="E24" s="40"/>
       <c r="F24" s="29"/>
       <c r="G24" s="30"/>
     </row>
@@ -1524,12 +1527,12 @@
         <v>17</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="E25" s="40" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="30"/>
@@ -1539,13 +1542,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="24">
@@ -1553,12 +1556,12 @@
         <v>19</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="42"/>
+      <c r="E27" s="40"/>
       <c r="G27" s="30"/>
     </row>
     <row r="28" spans="1:7" ht="24">
@@ -1566,12 +1569,12 @@
         <v>20</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="42"/>
+      <c r="E28" s="40"/>
       <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:7" ht="22.5" customHeight="1">
@@ -1579,13 +1582,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="27"/>
-      <c r="E29" s="42" t="s">
+      <c r="E29" s="40" t="s">
         <v>23</v>
       </c>
       <c r="F29" s="29"/>
@@ -1596,26 +1599,26 @@
         <v>22</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="42"/>
+      <c r="E30" s="40"/>
       <c r="G30" s="30"/>
     </row>
     <row r="31" spans="1:7" ht="23.5" customHeight="1">
-      <c r="A31" s="44">
+      <c r="A31" s="21">
         <v>23</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="23" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="27"/>
-      <c r="E31" s="42" t="s">
+      <c r="E31" s="40" t="s">
         <v>22</v>
       </c>
       <c r="F31" s="29"/>
@@ -1625,12 +1628,12 @@
     <row r="33" spans="1:7" ht="30" customHeight="1"/>
     <row r="34" spans="1:7" ht="18.75" customHeight="1">
       <c r="A34" s="31"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="2">
